--- a/project management/gantt chart - moved to drive.xlsx
+++ b/project management/gantt chart - moved to drive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="440" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="4300" windowWidth="34860" windowHeight="23320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="280">
   <si>
     <t>TAU data</t>
   </si>
@@ -237,12 +237,6 @@
     <t>MayoLOADGWAS_UFL-Mayo-ISB_TaqMan_ped</t>
   </si>
   <si>
-    <t>data - genecounts</t>
-  </si>
-  <si>
-    <t>data - normalized genecounts</t>
-  </si>
-  <si>
     <t>data - transcriptcounts</t>
   </si>
   <si>
@@ -624,9 +618,6 @@
     <t>parent of IL10 and APP/Tau</t>
   </si>
   <si>
-    <t>covariates included in the U01_288_AUT_TCx_RNAseq_Covars-Drives_02-06-2015_1447.xlsx spreadheet; data in the mayo-u01-rnaseq s3 bucket (n = 10)</t>
-  </si>
-  <si>
     <t>AMP-AD_TAUAPPms_UFL-Mayo_ISB_IlluminaHiSeq2000_App_GeneCounts</t>
   </si>
   <si>
@@ -780,21 +771,6 @@
     <t>syn3619668</t>
   </si>
   <si>
-    <t>syn3620839</t>
-  </si>
-  <si>
-    <t>syn3620844</t>
-  </si>
-  <si>
-    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_RushBroadSS_Covariates</t>
-  </si>
-  <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_MSBBTCX_Covariates</t>
-  </si>
-  <si>
-    <t>syn3630115</t>
-  </si>
-  <si>
     <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_GeneCounts.txt.gz</t>
   </si>
   <si>
@@ -804,23 +780,92 @@
     <t>syn3630140</t>
   </si>
   <si>
-    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_geneCounts_Normalized.txt.gz</t>
-  </si>
-  <si>
-    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_transcriptCounts_Normalized.txt.gz</t>
-  </si>
-  <si>
-    <t>syn3630585</t>
-  </si>
-  <si>
-    <t>syn3630598</t>
+    <t>syn3632530</t>
+  </si>
+  <si>
+    <t>MayoTCX_rnaseq-counts.zip</t>
+  </si>
+  <si>
+    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3192651</t>
+  </si>
+  <si>
+    <t>syn3658544</t>
+  </si>
+  <si>
+    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_Covariates</t>
+  </si>
+  <si>
+    <t>syn3667936</t>
+  </si>
+  <si>
+    <t>syn3667937</t>
+  </si>
+  <si>
+    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts_normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3682535</t>
+  </si>
+  <si>
+    <t>syn3682811</t>
+  </si>
+  <si>
+    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts_normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3772907</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCount_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3772915</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCount_Updated_normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Updated_normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>covariates included in the U01_288_AUT_TCx_RNAseq_Covars-Drives_02-06-2015_1447.xlsx spreadheet; data in the mayo-u01-rnaseq s3 bucket (n = 10); I'm uncertain about metadata</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_RushBroadSS_Covariates.csv</t>
+  </si>
+  <si>
+    <t>syn3801377</t>
+  </si>
+  <si>
+    <t>syn3801467</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_geneCounts_normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3801548</t>
+  </si>
+  <si>
+    <t>syn3801636</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_TranscriptCounts_Normalized.txt.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,6 +923,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -898,12 +956,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
@@ -917,6 +969,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -944,7 +1001,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1001,7 +1058,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1026,7 +1109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1042,33 +1125,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="56"/>
-    <xf numFmtId="17" fontId="6" fillId="5" borderId="1" xfId="56" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="56"/>
+    <xf numFmtId="17" fontId="6" fillId="4" borderId="1" xfId="56" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="81"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="106">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1134,6 +1218,32 @@
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="81" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
@@ -1411,13 +1521,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1461,13 +1571,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1511,13 +1621,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1561,13 +1671,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1611,13 +1721,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1661,13 +1771,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1711,13 +1821,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1761,13 +1871,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1811,13 +1921,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1861,13 +1971,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1911,13 +2021,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1961,13 +2071,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2011,13 +2121,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2061,13 +2171,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2111,13 +2221,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2161,13 +2271,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2211,13 +2321,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2261,13 +2371,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2311,13 +2421,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2361,13 +2471,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2411,13 +2521,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2461,13 +2571,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2511,13 +2621,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2561,13 +2671,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2611,13 +2721,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2661,13 +2771,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2711,13 +2821,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,13 +2871,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2811,13 +2921,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2861,13 +2971,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2911,13 +3021,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2961,13 +3071,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3011,13 +3121,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3061,13 +3171,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3111,13 +3221,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3161,13 +3271,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3211,13 +3321,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3261,13 +3371,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3311,13 +3421,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3682,13 +3792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3710,44 +3823,44 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
       <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
         <v>160</v>
-      </c>
-      <c r="I2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" t="s">
         <v>198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3758,7 +3871,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1">
         <v>42036</v>
@@ -3767,12 +3880,12 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="5" t="s">
@@ -3781,7 +3894,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="5" t="s">
@@ -3791,7 +3904,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="5" t="s">
@@ -3809,7 +3922,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2">
         <v>42050</v>
@@ -3818,13 +3931,13 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3832,60 +3945,60 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -3893,1072 +4006,1108 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1">
+      <c r="H19" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="H24" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickTop="1"/>
+    <row r="27" spans="1:9" s="23" customFormat="1">
+      <c r="D27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1">
+      <c r="C28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1">
+      <c r="C29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1">
+      <c r="C30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1">
+      <c r="C31" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1">
+      <c r="C32" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E34" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickTop="1"/>
+    <row r="36" spans="1:9">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2">
+        <v>42050</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
-      <c r="A20" t="s">
+      <c r="E37" s="2"/>
+      <c r="G37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16" thickTop="1"/>
-    <row r="23" spans="1:9" s="4" customFormat="1">
-      <c r="D23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1">
-      <c r="C24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1">
-      <c r="C25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1">
-      <c r="C26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1">
-      <c r="C27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1">
-      <c r="C28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="16" thickBot="1">
-      <c r="C29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E30" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" thickTop="1"/>
-    <row r="32" spans="1:9">
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="2">
-        <v>42050</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="H34" s="5" t="s">
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="H38" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="H35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="H36" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="H37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="H39" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="H40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="7"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2"/>
       <c r="H41" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="30">
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
       <c r="E42" s="2"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2">
-        <v>42050</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="H43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
       </c>
       <c r="E45" s="2"/>
       <c r="H45" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
       <c r="E46" s="2"/>
-      <c r="H46" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="H46" s="5"/>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="H47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="7"/>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>42050</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2"/>
       <c r="H48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2"/>
       <c r="H49" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2"/>
       <c r="H50" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2"/>
       <c r="H51" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2"/>
       <c r="H55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="H56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="H57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="H58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="H59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" ht="16" thickBot="1">
-      <c r="E56" s="2"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E57" s="11">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" ht="16" thickBot="1">
+      <c r="E60" s="2"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E61" s="10">
         <v>42217</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I61" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16" thickTop="1">
+      <c r="E62" s="1"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2">
+        <v>42050</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" s="11" customFormat="1">
+      <c r="B71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="12">
+        <v>42036</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="15" customFormat="1">
+      <c r="D72" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="I72" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="11" customFormat="1">
+      <c r="A73" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="H73" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="15" customFormat="1">
+      <c r="C74" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="H74" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="11" customFormat="1">
+      <c r="A75" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="H75" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="15" customFormat="1">
+      <c r="C76" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="H76" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="11" customFormat="1">
+      <c r="A77" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="H77" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="15" customFormat="1">
+      <c r="C78" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="H78" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="11" customFormat="1">
+      <c r="A79" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="H79" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="15" customFormat="1">
+      <c r="C80" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="16"/>
+      <c r="H80" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="11" customFormat="1">
+      <c r="A81" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="H81" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="15" customFormat="1">
+      <c r="C82" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="H82" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="11" customFormat="1">
+      <c r="A83" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="H83" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="15" customFormat="1">
+      <c r="C84" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="H84" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="11" customFormat="1">
+      <c r="A85" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="H85" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="15" customFormat="1">
+      <c r="C86" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="H86" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="17" customFormat="1">
+      <c r="E87" s="18"/>
+      <c r="H87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" s="15" customFormat="1">
+      <c r="D88" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="15" customFormat="1">
+      <c r="C89" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="H89" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="15" customFormat="1">
+      <c r="C90" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="H90" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="11" customFormat="1">
+      <c r="A91" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="H91" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16" thickTop="1">
-      <c r="E58" s="1"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" t="s">
-        <v>213</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" t="s">
+    <row r="92" spans="1:9" s="15" customFormat="1">
+      <c r="C92" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="H92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="11" customFormat="1">
+      <c r="A93" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="H93" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="15" customFormat="1">
+      <c r="C94" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="H94" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="11" customFormat="1">
+      <c r="A95" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="H95" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="15" customFormat="1">
+      <c r="C96" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="H96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="11" customFormat="1">
+      <c r="A97" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="H97" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="15" customFormat="1">
+      <c r="E98" s="16"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" s="11" customFormat="1">
+      <c r="A99" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="H99" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="15" customFormat="1">
+      <c r="C100" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="H100" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="11" customFormat="1">
+      <c r="A101" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="H101" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="15" customFormat="1">
+      <c r="C102" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="H102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="11" customFormat="1">
+      <c r="A103" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="H103" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="15" customFormat="1" ht="16" thickBot="1">
+      <c r="E104" s="16"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E105" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16" thickTop="1">
+      <c r="E106" s="1"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" s="4" customFormat="1">
+      <c r="D107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="6">
+        <v>42125</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G59" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2">
-        <v>42050</v>
-      </c>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="H62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="H63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="H64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" s="12" customFormat="1">
-      <c r="B67" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="13">
-        <v>42036</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="12" t="s">
+      <c r="G107" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="16" customFormat="1">
-      <c r="D68" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="I68" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="12" customFormat="1">
-      <c r="A69" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="H69" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="16" customFormat="1">
-      <c r="C70" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="H70" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="12" customFormat="1">
-      <c r="A71" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="H71" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="16" customFormat="1">
-      <c r="C72" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="H72" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="12" customFormat="1">
-      <c r="A73" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="H73" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="16" customFormat="1">
-      <c r="C74" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="H74" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="12" customFormat="1">
-      <c r="A75" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="H75" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="16" customFormat="1">
-      <c r="C76" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="H76" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="12" customFormat="1">
-      <c r="A77" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="H77" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="16" customFormat="1">
-      <c r="C78" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="H78" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="12" customFormat="1">
-      <c r="A79" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="H79" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="16" customFormat="1">
-      <c r="C80" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="H80" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="12" customFormat="1">
-      <c r="A81" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="H81" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="16" customFormat="1">
-      <c r="C82" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="H82" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="18" customFormat="1">
-      <c r="E83" s="19"/>
-      <c r="H83" s="20"/>
-    </row>
-    <row r="84" spans="1:9" s="16" customFormat="1">
-      <c r="D84" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="17"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="16" customFormat="1">
-      <c r="C85" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="17"/>
-      <c r="H85" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="16" customFormat="1">
-      <c r="C86" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="17"/>
-      <c r="H86" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="12" customFormat="1">
-      <c r="A87" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="H87" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="16" customFormat="1">
-      <c r="C88" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="17"/>
-      <c r="H88" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="12" customFormat="1">
-      <c r="A89" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="H89" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="16" customFormat="1">
-      <c r="C90" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E90" s="17"/>
-      <c r="H90" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="12" customFormat="1">
-      <c r="A91" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="H91" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="16" customFormat="1">
-      <c r="C92" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E92" s="17"/>
-      <c r="H92" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="12" customFormat="1">
-      <c r="A93" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="13"/>
-      <c r="H93" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="16" customFormat="1">
-      <c r="E94" s="17"/>
-      <c r="H94" s="21"/>
-    </row>
-    <row r="95" spans="1:9" s="12" customFormat="1">
-      <c r="A95" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="H95" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="16" customFormat="1">
-      <c r="C96" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E96" s="17"/>
-      <c r="H96" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="12" customFormat="1">
-      <c r="A97" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="13"/>
-      <c r="H97" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="16" customFormat="1">
-      <c r="C98" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E98" s="17"/>
-      <c r="H98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="12" customFormat="1">
-      <c r="A99" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99" s="13"/>
-      <c r="H99" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="16" customFormat="1" ht="16" thickBot="1">
-      <c r="E100" s="17"/>
-      <c r="H100" s="21"/>
-    </row>
-    <row r="101" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E101" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16" thickTop="1">
-      <c r="E102" s="1"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="C103" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E103" s="6">
-        <v>42125</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G103" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="4" customFormat="1">
-      <c r="C104" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="H104" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="4" customFormat="1">
-      <c r="E105" s="6"/>
-      <c r="H105" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="4" customFormat="1">
-      <c r="E106" s="6"/>
-      <c r="H106" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="4" customFormat="1">
-      <c r="E107" s="6"/>
-      <c r="H107" s="4" t="s">
-        <v>73</v>
+      <c r="I107" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
+      <c r="C108" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="E108" s="6"/>
       <c r="H108" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="4" customFormat="1" ht="16" thickBot="1">
-      <c r="E109" s="6"/>
-      <c r="H109" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E110" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H110" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="8" customFormat="1">
+      <c r="C109" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="H109" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="4" customFormat="1">
+      <c r="C110" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="H110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="4" customFormat="1">
+      <c r="C111" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="H111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="4" customFormat="1">
+      <c r="C112" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="H112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="C113" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="H113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E114" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="116" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E116" s="10">
+        <v>42401</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="16" thickTop="1">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="3:9" s="4" customFormat="1">
+      <c r="D118" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="6">
+        <v>42125</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" s="23" customFormat="1">
+      <c r="C119" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" s="8" customFormat="1">
+      <c r="C120" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" s="23" customFormat="1">
+      <c r="C121" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" s="23" customFormat="1">
+      <c r="C122" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" s="23" customFormat="1">
+      <c r="C123" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C124" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E125" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="127" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="D127" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="112" spans="1:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E112" s="11">
-        <v>42401</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" ht="16" thickTop="1">
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="3:9" s="4" customFormat="1">
-      <c r="D114" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E114" s="6">
-        <v>42125</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G114" s="4" t="s">
+      <c r="G127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" s="4" customFormat="1">
-      <c r="C115" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H115" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" s="4" customFormat="1">
-      <c r="C116" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" s="4" customFormat="1">
-      <c r="C117" t="s">
-        <v>253</v>
-      </c>
-      <c r="H117" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" s="4" customFormat="1">
-      <c r="C118" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H118" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" s="4" customFormat="1">
-      <c r="C119" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H119" t="s">
-        <v>259</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" s="4" customFormat="1" ht="16" thickBot="1">
-      <c r="C120" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H120" t="s">
-        <v>262</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E121" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="123" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="D123" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="I127" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G123" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H124" s="10" t="s">
+    </row>
+    <row r="128" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H128" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H129" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H130" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H125" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H126" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H127" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" s="10" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H128" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" ht="16" thickTop="1"/>
+    <row r="131" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H131" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H132" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" ht="16" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C103" r:id="rId1" location="%21Synapse:syn3163039"/>
+    <hyperlink ref="D107" r:id="rId1" location="%21Synapse:syn3163039"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="25" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/project management/gantt chart - moved to drive.xlsx
+++ b/project management/gantt chart - moved to drive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="4300" windowWidth="34860" windowHeight="23320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="305">
   <si>
     <t>TAU data</t>
   </si>
@@ -786,57 +786,18 @@
     <t>MayoTCX_rnaseq-counts.zip</t>
   </si>
   <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts.txt.gz</t>
-  </si>
-  <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts.txt.gz</t>
-  </si>
-  <si>
     <t>syn3192651</t>
   </si>
   <si>
-    <t>syn3658544</t>
-  </si>
-  <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_Covariates</t>
-  </si>
-  <si>
-    <t>syn3667936</t>
-  </si>
-  <si>
-    <t>syn3667937</t>
-  </si>
-  <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts_normalized.txt.gz</t>
-  </si>
-  <si>
-    <t>syn3682535</t>
-  </si>
-  <si>
-    <t>syn3682811</t>
-  </si>
-  <si>
-    <t>AMP-AD_MSBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts_normalized.txt.gz</t>
-  </si>
-  <si>
     <t>syn3772907</t>
   </si>
   <si>
-    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCount_Updated.txt.gz</t>
-  </si>
-  <si>
     <t>syn3772915</t>
   </si>
   <si>
     <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Updated.txt.gz</t>
   </si>
   <si>
-    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCount_Updated_normalized.txt.gz</t>
-  </si>
-  <si>
-    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Updated_normalized.txt.gz</t>
-  </si>
-  <si>
     <t>covariates included in the U01_288_AUT_TCx_RNAseq_Covars-Drives_02-06-2015_1447.xlsx spreadheet; data in the mayo-u01-rnaseq s3 bucket (n = 10); I'm uncertain about metadata</t>
   </si>
   <si>
@@ -859,6 +820,120 @@
   </si>
   <si>
     <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_TranscriptCounts_Normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_Covariates.csv</t>
+  </si>
+  <si>
+    <t>syn3817650</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3818244</t>
+  </si>
+  <si>
+    <t>syn3818429</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts_Normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3818611</t>
+  </si>
+  <si>
+    <t>syn3818905</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts_Normalized.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_Alzheimer_GeneCounts_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3848699</t>
+  </si>
+  <si>
+    <t>syn3848926</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_Alzheimer_TranscriptCounts_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3849098</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_Alzheimer_GeneCounts_Normalized_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3849376</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_Alzheimer_TranscriptCounts_Normalized_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3850418</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_ProgressiveSupranuclearPalsy_GeneCounts_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_ProgressiveSupranuclearPalsy_GeneCounts_Normalized_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3850683</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_ProgressiveSupranuclearPalsy_TranscriptCounts_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3851120</t>
+  </si>
+  <si>
+    <t>syn3851299</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoPilot_UFL-Mayo-ISB_IlluminaHiSeq2000_TemporalCortex_ProgressiveSupranuclearPalsy_TranscriptCounts_Normalized_UpdatedID.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Normalized_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCount_Normalized_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3909702</t>
+  </si>
+  <si>
+    <t>Mouse_samples.txt</t>
+  </si>
+  <si>
+    <t>old covariates</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCounts_Transposed_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_GeneCounts_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3910122</t>
+  </si>
+  <si>
+    <t>syn3910325</t>
+  </si>
+  <si>
+    <t>syn3910523</t>
+  </si>
+  <si>
+    <t>AMP-AD_TAUAPPms_UFL-Mayo-ISB_IlluminaHiSeq2000_Tau_TranscriptCounts_Transposed_Updated.txt.gz</t>
+  </si>
+  <si>
+    <t>syn3910665</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1000,8 +1075,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1108,8 +1198,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1151,8 +1256,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="81"/>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="9" fillId="7" borderId="0" xfId="81" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="121">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1243,6 +1351,21 @@
     <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="81" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
@@ -1521,13 +1644,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,13 +1694,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1621,13 +1744,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1671,13 +1794,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1721,13 +1844,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1771,13 +1894,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1821,13 +1944,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1871,13 +1994,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1921,13 +2044,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1971,13 +2094,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2021,13 +2144,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2071,13 +2194,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2121,13 +2244,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2171,13 +2294,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2221,13 +2344,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2271,13 +2394,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2321,13 +2444,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2371,13 +2494,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2421,13 +2544,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2471,13 +2594,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2521,13 +2644,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2571,13 +2694,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2621,13 +2744,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2671,13 +2794,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2721,13 +2844,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2771,13 +2894,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2821,13 +2944,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2871,13 +2994,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2921,13 +3044,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2971,13 +3094,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3021,13 +3144,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3071,13 +3194,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3121,13 +3244,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3171,13 +3294,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3221,13 +3344,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3271,13 +3394,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3321,13 +3444,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3371,13 +3494,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3421,13 +3544,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3795,13 +3918,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3969,1138 +4092,1251 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
       <c r="C14" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1">
-      <c r="H19" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="8" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1">
+      <c r="C20" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="8" customFormat="1">
+      <c r="C21" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="16" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="H24" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="8" customFormat="1">
+      <c r="C25" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="8" customFormat="1">
+      <c r="C27" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="16" thickBot="1">
+      <c r="C28" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1"/>
-    <row r="27" spans="1:9" s="23" customFormat="1">
-      <c r="D27" s="23" t="s">
+    <row r="30" spans="1:9" ht="16" thickTop="1"/>
+    <row r="31" spans="1:9" s="23" customFormat="1">
+      <c r="D31" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H31" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1">
-      <c r="C28" s="8" t="s">
+    <row r="32" spans="1:9" s="8" customFormat="1">
+      <c r="C32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1">
-      <c r="C29" s="23" t="s">
+    <row r="33" spans="1:9" s="23" customFormat="1">
+      <c r="C33" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H33" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="23" customFormat="1">
-      <c r="C30" s="23" t="s">
+    <row r="34" spans="1:9" s="23" customFormat="1">
+      <c r="C34" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H34" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1">
-      <c r="C31" s="23" t="s">
+    <row r="35" spans="1:9" s="23" customFormat="1">
+      <c r="C35" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
-      <c r="C32" s="23" t="s">
+    <row r="36" spans="1:9" s="23" customFormat="1">
+      <c r="C36" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H36" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
-      <c r="C33" s="23" t="s">
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C37" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H37" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E34" s="9" t="s">
+    <row r="38" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E38" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" thickTop="1"/>
-    <row r="36" spans="1:9">
-      <c r="B36" t="s">
+    <row r="39" spans="1:9" ht="16" thickTop="1"/>
+    <row r="40" spans="1:9">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E40" s="2">
         <v>42050</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I40" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="B37" t="s">
+    <row r="41" spans="1:9" ht="30">
+      <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="G37" s="5" t="s">
+      <c r="E41" s="2"/>
+      <c r="G41" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="H38" s="5" t="s">
+      <c r="E42" s="2"/>
+      <c r="H42" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="H39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="H40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="H41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="G42" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E43" s="2"/>
       <c r="H43" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="7"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2"/>
       <c r="H45" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="30">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="2">
-        <v>42050</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="H47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="H48" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="H49" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
       <c r="E50" s="2"/>
-      <c r="H50" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="H51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="7"/>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>42050</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2"/>
       <c r="H55" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="H56" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2"/>
       <c r="H57" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2"/>
       <c r="H58" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2"/>
       <c r="H59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="H60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="H61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="H62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="H63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="16" thickBot="1">
-      <c r="E60" s="2"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E61" s="10">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" thickBot="1">
+      <c r="E64" s="2"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E65" s="10">
         <v>42217</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" thickTop="1">
-      <c r="E62" s="1"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" t="s">
+    <row r="66" spans="1:9" ht="16" thickTop="1">
+      <c r="E66" s="1"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" t="s">
         <v>177</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" t="s">
         <v>163</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G67" t="s">
         <v>175</v>
       </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="7" t="s">
+      <c r="H67" s="5"/>
+      <c r="I67" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="B65" t="s">
+    <row r="68" spans="1:9">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E69" s="2">
         <v>42050</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C70" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="H66" t="s">
+      <c r="E70" s="2"/>
+      <c r="H70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
         <v>31</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="H67" t="s">
+      <c r="E71" s="2"/>
+      <c r="H71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
         <v>32</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="H68" t="s">
+      <c r="E72" s="2"/>
+      <c r="H72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
         <v>33</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="H69" t="s">
+      <c r="E73" s="2"/>
+      <c r="H73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" s="11" customFormat="1">
-      <c r="B71" s="11" t="s">
+    <row r="74" spans="1:9">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" s="11" customFormat="1">
+      <c r="B75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D75" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E75" s="12">
         <v>42036</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="H75"/>
+      <c r="I75" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="15" customFormat="1">
-      <c r="D72" s="15" t="s">
+    <row r="76" spans="1:9" s="15" customFormat="1">
+      <c r="D76" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="I72" s="15" t="s">
+      <c r="E76" s="16"/>
+      <c r="I76" s="15" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="11" customFormat="1">
-      <c r="A73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="H73" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="15" customFormat="1">
-      <c r="C74" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="H74" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="11" customFormat="1">
-      <c r="A75" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="H75" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="15" customFormat="1">
-      <c r="C76" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="H76" s="15" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E77" s="12"/>
       <c r="H77" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="15" customFormat="1">
-      <c r="C78" s="15" t="s">
-        <v>223</v>
+      <c r="C78" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="E78" s="16"/>
-      <c r="H78" s="15" t="s">
-        <v>224</v>
+      <c r="H78" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E79" s="12"/>
       <c r="H79" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="15" customFormat="1">
-      <c r="C80" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E80" s="16"/>
-      <c r="H80" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="11" customFormat="1">
-      <c r="A81" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="H81" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="15" customFormat="1">
-      <c r="C82" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="16"/>
-      <c r="H82" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="11" customFormat="1">
-      <c r="A83" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="H83" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="26" customFormat="1">
+      <c r="C80" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="H80" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="15" customFormat="1">
+      <c r="C81" t="s">
+        <v>278</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="H81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="11" customFormat="1">
+      <c r="A82" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="H82" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="4" customFormat="1">
+      <c r="C83" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="H83" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="15" customFormat="1">
-      <c r="C84" s="15" t="s">
-        <v>229</v>
+      <c r="C84" t="s">
+        <v>281</v>
       </c>
       <c r="E84" s="16"/>
-      <c r="H84" s="15" t="s">
-        <v>230</v>
+      <c r="H84" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85" s="12"/>
       <c r="H85" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="15" customFormat="1">
-      <c r="C86" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="H86" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="17" customFormat="1">
-      <c r="E87" s="18"/>
-      <c r="H87" s="19"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="4" customFormat="1">
+      <c r="C86" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="H86" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="11" customFormat="1">
+      <c r="A87" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="H87" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="88" spans="1:9" s="15" customFormat="1">
-      <c r="D88" s="15" t="s">
-        <v>220</v>
+      <c r="C88" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="E88" s="16"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="15" t="s">
-        <v>218</v>
+      <c r="H88" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="15" customFormat="1">
-      <c r="C89" s="15" t="s">
-        <v>237</v>
+      <c r="C89" t="s">
+        <v>279</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="H89" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="15" customFormat="1">
-      <c r="C90" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="H90" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="11" customFormat="1">
-      <c r="A91" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="H91" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>214</v>
+      <c r="H89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="11" customFormat="1">
+      <c r="A90" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="H90" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="15" customFormat="1">
+      <c r="C91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="H91" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="15" customFormat="1">
-      <c r="C92" s="15" t="s">
-        <v>235</v>
+      <c r="C92" t="s">
+        <v>283</v>
       </c>
       <c r="E92" s="16"/>
       <c r="H92" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1">
       <c r="A93" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E93" s="12"/>
       <c r="H93" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="15" customFormat="1">
-      <c r="C94" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="16"/>
-      <c r="H94" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="11" customFormat="1">
-      <c r="A95" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="H95" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="4" customFormat="1">
+      <c r="C94" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="H94" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="17" customFormat="1">
+      <c r="E95" s="18"/>
+      <c r="H95" s="19"/>
     </row>
     <row r="96" spans="1:9" s="15" customFormat="1">
-      <c r="C96" s="15" t="s">
-        <v>246</v>
+      <c r="D96" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="E96" s="16"/>
-      <c r="H96" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="11" customFormat="1">
-      <c r="A97" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="H97" s="14" t="s">
-        <v>44</v>
+      <c r="H96" s="20"/>
+      <c r="I96" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="15" customFormat="1">
+      <c r="C97" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="H97" s="21" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="15" customFormat="1">
+      <c r="C98" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="E98" s="16"/>
-      <c r="H98" s="20"/>
+      <c r="H98" s="21" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1">
       <c r="A99" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E99" s="12"/>
-      <c r="H99" s="14" t="s">
-        <v>45</v>
+      <c r="H99" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="15" customFormat="1">
-      <c r="C100" s="15" t="s">
-        <v>244</v>
+      <c r="C100" t="s">
+        <v>235</v>
       </c>
       <c r="E100" s="16"/>
-      <c r="H100" s="22" t="s">
-        <v>241</v>
+      <c r="H100" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1">
       <c r="A101" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="E101" s="12"/>
-      <c r="H101" s="13" t="s">
-        <v>46</v>
+      <c r="H101" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="15" customFormat="1">
       <c r="C102" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="H102" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="15" customFormat="1">
+      <c r="C103" t="s">
+        <v>285</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="H103" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="11" customFormat="1">
+      <c r="A104" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="H104" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="15" customFormat="1">
+      <c r="C105" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="H105" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="15" customFormat="1">
+      <c r="C106" t="s">
+        <v>288</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="H106" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="11" customFormat="1">
+      <c r="A107" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="H107" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="11" customFormat="1">
+      <c r="A108" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="H108" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="15" customFormat="1">
+      <c r="C109" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="H109" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="15" customFormat="1">
+      <c r="C110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="H110" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="11" customFormat="1">
+      <c r="A111" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="H111" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="15" customFormat="1">
+      <c r="C112" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="16"/>
-      <c r="H102" t="s">
+      <c r="E112" s="16"/>
+      <c r="H112" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="11" customFormat="1">
-      <c r="A103" s="11" t="s">
+    <row r="113" spans="1:9" s="15" customFormat="1">
+      <c r="C113" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="H113" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="11" customFormat="1">
+      <c r="A114" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E103" s="12"/>
-      <c r="H103" s="14" t="s">
+      <c r="E114" s="12"/>
+      <c r="H114" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="15" customFormat="1" ht="16" thickBot="1">
-      <c r="E104" s="16"/>
-      <c r="H104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E105" s="9" t="s">
+    <row r="115" spans="1:9" s="15" customFormat="1" ht="16" thickBot="1">
+      <c r="E115" s="16"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E116" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16" thickTop="1">
-      <c r="E106" s="1"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" s="4" customFormat="1">
-      <c r="D107" s="4" t="s">
+    <row r="117" spans="1:9" ht="16" thickTop="1">
+      <c r="E117" s="1"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="1:9" s="4" customFormat="1">
+      <c r="D118" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="E107" s="6">
-        <v>42125</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="C108" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="H108" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="8" customFormat="1">
-      <c r="C109" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="H109" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="4" customFormat="1">
-      <c r="C110" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="H110" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="4" customFormat="1">
-      <c r="C111" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="H111" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="4" customFormat="1">
-      <c r="C112" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="H112" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" s="4" customFormat="1" ht="16" thickBot="1">
-      <c r="C113" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="H113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E114" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="116" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E116" s="10">
-        <v>42401</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" ht="16" thickTop="1">
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="3:9" s="4" customFormat="1">
-      <c r="D118" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E118" s="6">
         <v>42125</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G118" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G118" t="s">
         <v>8</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" s="23" customFormat="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="23" customFormat="1">
       <c r="C119" s="23" t="s">
-        <v>252</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E119" s="25"/>
       <c r="H119" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" s="8" customFormat="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="8" customFormat="1">
       <c r="C120" s="8" t="s">
-        <v>249</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E120" s="24"/>
       <c r="H120" s="8" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="3:9" s="23" customFormat="1">
+    <row r="121" spans="1:9" s="23" customFormat="1">
       <c r="C121" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="H121" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="23" customFormat="1">
+      <c r="C122" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="H122" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="23" customFormat="1">
+      <c r="C123" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="H123" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C124" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="H121" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" s="23" customFormat="1">
-      <c r="C122" s="23" t="s">
+      <c r="E124" s="25"/>
+      <c r="H124" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" s="23" customFormat="1">
-      <c r="C123" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
-      <c r="C124" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    </row>
+    <row r="125" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E125" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H125" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E127" s="10">
+        <v>42401</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16" thickTop="1">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="3:9" s="4" customFormat="1">
+      <c r="D129" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E129" s="6">
+        <v>42125</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" s="23" customFormat="1">
+      <c r="C130" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" s="8" customFormat="1">
+      <c r="C131" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" s="23" customFormat="1">
+      <c r="C132" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" s="23" customFormat="1">
+      <c r="C133" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" s="23" customFormat="1">
+      <c r="C134" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C135" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E136" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I136" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="127" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="D127" s="9" t="s">
+    <row r="137" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="138" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="D138" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E138" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F138" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G138" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I138" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H128" s="9" t="s">
+    <row r="139" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H139" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H129" s="9" t="s">
+    <row r="140" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H140" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H130" s="9" t="s">
+    <row r="141" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H141" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H131" s="9" t="s">
+    <row r="142" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H142" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I142" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="132" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H132" s="9" t="s">
+    <row r="143" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H143" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I132" s="9" t="s">
+      <c r="I143" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="8:9" ht="16" thickTop="1"/>
+    <row r="144" spans="3:9" ht="16" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D107" r:id="rId1" location="%21Synapse:syn3163039"/>
+    <hyperlink ref="D118" r:id="rId1" location="%21Synapse:syn3163039"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="25" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/project management/gantt chart - moved to drive.xlsx
+++ b/project management/gantt chart - moved to drive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="306">
   <si>
     <t>TAU data</t>
   </si>
@@ -54,15 +54,6 @@
     <t>MayoLOADGWAS Exome sequencing</t>
   </si>
   <si>
-    <t>Public Synapse ID - data</t>
-  </si>
-  <si>
-    <t>Public Synapse ID - study info</t>
-  </si>
-  <si>
-    <t>Working Synapse ID - data</t>
-  </si>
-  <si>
     <t>syn3157175</t>
   </si>
   <si>
@@ -504,9 +495,6 @@
     <t>I think this is my public root directory. (not sure of working id)</t>
   </si>
   <si>
-    <t>Working Synapse ID - study info</t>
-  </si>
-  <si>
     <t>syn3163039</t>
   </si>
   <si>
@@ -934,6 +922,21 @@
   </si>
   <si>
     <t>syn3910665</t>
+  </si>
+  <si>
+    <t>Partner Page Synapse ID - study info</t>
+  </si>
+  <si>
+    <t>Partner Page Synapse ID - data</t>
+  </si>
+  <si>
+    <t>Knowledge Bank Synapse ID - study info</t>
+  </si>
+  <si>
+    <t>Knowledge Bank Synapse ID - data</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1174,6 +1177,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1260,7 +1265,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1366,6 +1371,8 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="81" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
@@ -3921,10 +3928,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3935,66 +3942,66 @@
     <col min="9" max="9" width="68.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="60">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>42036</v>
@@ -4003,49 +4010,52 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2">
         <v>42050</v>
@@ -4054,282 +4064,282 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1">
       <c r="C20" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1">
       <c r="C21" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1">
       <c r="C25" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
       <c r="C27" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="C28" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E29" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" thickTop="1"/>
     <row r="31" spans="1:9" s="23" customFormat="1">
       <c r="D31" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1">
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1">
       <c r="C33" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1">
       <c r="C34" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1">
       <c r="C35" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1">
       <c r="C36" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="C37" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E38" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16" thickTop="1"/>
     <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>42050</v>
@@ -4338,115 +4348,115 @@
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="G41" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2"/>
       <c r="H42" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2"/>
       <c r="H43" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2"/>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2"/>
       <c r="H47" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2"/>
       <c r="H48" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2"/>
       <c r="H49" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I49" s="7"/>
     </row>
@@ -4457,7 +4467,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
         <v>42050</v>
@@ -4468,120 +4478,120 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2"/>
       <c r="H55" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2"/>
       <c r="H56" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2"/>
       <c r="H57" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2"/>
       <c r="H58" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2"/>
       <c r="H59" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2"/>
       <c r="H60" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2"/>
       <c r="H61" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2"/>
       <c r="H62" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2"/>
       <c r="H63" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I63" s="7"/>
     </row>
@@ -4598,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16" thickTop="1">
@@ -4607,21 +4617,21 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4629,7 +4639,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2">
         <v>42050</v>
@@ -4640,50 +4650,50 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2"/>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2"/>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2"/>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2"/>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4691,10 +4701,10 @@
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1">
       <c r="B75" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E75" s="12">
         <v>42036</v>
@@ -4707,193 +4717,193 @@
       </c>
       <c r="H75"/>
       <c r="I75" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="15" customFormat="1">
       <c r="D76" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E76" s="16"/>
       <c r="I76" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E77" s="12"/>
       <c r="H77" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="15" customFormat="1">
       <c r="C78" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E78" s="16"/>
       <c r="H78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E79" s="12"/>
       <c r="H79" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="26" customFormat="1">
       <c r="C80" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E80" s="27"/>
       <c r="H80" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="15" customFormat="1">
       <c r="C81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E81" s="16"/>
       <c r="H81" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="11" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1">
       <c r="C83" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E83" s="6"/>
       <c r="H83" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="15" customFormat="1">
       <c r="C84" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E84" s="16"/>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E85" s="12"/>
       <c r="H85" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1">
       <c r="C86" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E86" s="6"/>
       <c r="H86" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="11" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E87" s="12"/>
       <c r="H87" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="15" customFormat="1">
       <c r="C88" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E88" s="16"/>
       <c r="H88" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="15" customFormat="1">
       <c r="C89" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E89" s="16"/>
       <c r="H89" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="11" customFormat="1">
       <c r="A90" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E90" s="12"/>
       <c r="H90" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="15" customFormat="1">
       <c r="C91" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E91" s="16"/>
       <c r="H91" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="15" customFormat="1">
       <c r="C92" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E92" s="16"/>
       <c r="H92" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1">
       <c r="A93" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E93" s="12"/>
       <c r="H93" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="4" customFormat="1">
       <c r="C94" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E94" s="6"/>
       <c r="H94" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="17" customFormat="1">
@@ -4902,192 +4912,192 @@
     </row>
     <row r="96" spans="1:9" s="15" customFormat="1">
       <c r="D96" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E96" s="16"/>
       <c r="H96" s="20"/>
       <c r="I96" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="15" customFormat="1">
       <c r="C97" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E97" s="16"/>
       <c r="H97" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="15" customFormat="1">
       <c r="C98" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E98" s="16"/>
       <c r="H98" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1">
       <c r="A99" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E99" s="12"/>
       <c r="H99" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="15" customFormat="1">
       <c r="C100" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E100" s="16"/>
       <c r="H100" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1">
       <c r="A101" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E101" s="12"/>
       <c r="H101" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="15" customFormat="1">
       <c r="C102" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E102" s="16"/>
       <c r="H102" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="15" customFormat="1">
       <c r="C103" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E103" s="16"/>
       <c r="H103" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="11" customFormat="1">
       <c r="A104" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E104" s="12"/>
       <c r="H104" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="15" customFormat="1">
       <c r="C105" s="15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E105" s="16"/>
       <c r="H105" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="15" customFormat="1">
       <c r="C106" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E106" s="16"/>
       <c r="H106" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="11" customFormat="1">
       <c r="A107" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E107" s="12"/>
       <c r="H107" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="11" customFormat="1">
       <c r="A108" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E108" s="12"/>
       <c r="H108" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="15" customFormat="1">
       <c r="C109" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E109" s="16"/>
       <c r="H109" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="15" customFormat="1">
       <c r="C110" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E110" s="16"/>
       <c r="H110" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="11" customFormat="1">
       <c r="A111" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E111" s="12"/>
       <c r="H111" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="15" customFormat="1">
       <c r="C112" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E112" s="16"/>
       <c r="H112" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="15" customFormat="1">
       <c r="C113" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E113" s="16"/>
       <c r="H113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="11" customFormat="1">
       <c r="A114" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E114" s="12"/>
       <c r="H114" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="15" customFormat="1" ht="16" thickBot="1">
@@ -5096,10 +5106,10 @@
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E116" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16" thickTop="1">
@@ -5109,84 +5119,84 @@
     </row>
     <row r="118" spans="1:9" s="4" customFormat="1">
       <c r="D118" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E118" s="6">
         <v>42125</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G118" t="s">
         <v>8</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="23" customFormat="1">
       <c r="C119" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E119" s="25"/>
       <c r="H119" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="8" customFormat="1">
       <c r="C120" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E120" s="24"/>
       <c r="H120" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="23" customFormat="1">
       <c r="C121" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E121" s="25"/>
       <c r="H121" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="23" customFormat="1">
       <c r="C122" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E122" s="25"/>
       <c r="H122" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="23" customFormat="1">
       <c r="C123" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E123" s="25"/>
       <c r="H123" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="C124" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E124" s="25"/>
       <c r="H124" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E125" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H125" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17" thickTop="1" thickBot="1"/>
@@ -5195,10 +5205,10 @@
         <v>42401</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16" thickTop="1">
@@ -5206,130 +5216,130 @@
     </row>
     <row r="129" spans="3:9" s="4" customFormat="1">
       <c r="D129" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E129" s="6">
         <v>42125</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="3:9" s="23" customFormat="1">
       <c r="C130" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="3:9" s="8" customFormat="1">
       <c r="C131" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="3:9" s="23" customFormat="1">
       <c r="C132" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="3:9" s="23" customFormat="1">
       <c r="C133" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="3:9" s="23" customFormat="1">
       <c r="C134" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="C135" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E136" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
     <row r="138" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="D138" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H139" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H140" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H141" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H142" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H143" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="16" thickTop="1"/>

--- a/project management/gantt chart - moved to drive.xlsx
+++ b/project management/gantt chart - moved to drive.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="319">
   <si>
     <t>TAU data</t>
   </si>
@@ -936,7 +936,46 @@
     <t>Knowledge Bank Synapse ID - data</t>
   </si>
   <si>
-    <t>`</t>
+    <t>syn4239736</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_GeneCounts_Normalized_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_MayoBB_UFL-Mayo-ISB_IlluminaHiSeq2000_TCX_TranscriptCounts_Normalized_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>syn4650257</t>
+  </si>
+  <si>
+    <t>syn4650258</t>
+  </si>
+  <si>
+    <t>syn4650265</t>
+  </si>
+  <si>
+    <t>syn4650430</t>
+  </si>
+  <si>
+    <t>RNA-Seq RERUN</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_GeneCounts_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_geneCounts_normalized_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_TranscriptCounts_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_TranscriptCounts_Normalized_JulyRerun.txt.gz</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1133,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1218,8 +1257,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1264,8 +1305,10 @@
     <xf numFmtId="17" fontId="9" fillId="7" borderId="0" xfId="81" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="81" applyFill="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="81" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1373,6 +1416,8 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="81" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
@@ -3925,13 +3970,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4043,9 +4088,6 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>305</v>
-      </c>
       <c r="E10" s="1"/>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -5128,7 +5170,7 @@
         <v>161</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
+        <v>314</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>178</v>
@@ -5157,38 +5199,38 @@
     </row>
     <row r="121" spans="1:9" s="23" customFormat="1">
       <c r="C121" s="23" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="E121" s="25"/>
       <c r="H121" s="23" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="23" customFormat="1">
       <c r="C122" s="23" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="E122" s="25"/>
       <c r="H122" s="23" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="23" customFormat="1">
       <c r="C123" s="23" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="E123" s="25"/>
       <c r="H123" s="23" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="C124" s="23" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="E124" s="25"/>
       <c r="H124" s="23" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
@@ -5199,150 +5241,295 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E127" s="10">
+    <row r="126" spans="1:9" ht="16" thickTop="1"/>
+    <row r="127" spans="1:9" s="4" customFormat="1">
+      <c r="D127" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E127" s="6">
+        <v>42125</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="28" customFormat="1">
+      <c r="C128" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" s="29"/>
+      <c r="H128" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" s="8" customFormat="1">
+      <c r="C129" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="H129" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" s="28" customFormat="1">
+      <c r="C130" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="29"/>
+      <c r="H130" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" s="28" customFormat="1">
+      <c r="C131" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="29"/>
+      <c r="H131" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" s="28" customFormat="1">
+      <c r="C132" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="29"/>
+      <c r="H132" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" s="28" customFormat="1" ht="16" thickBot="1">
+      <c r="C133" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E133" s="29"/>
+      <c r="H133" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E134" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="136" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E136" s="10">
         <v>42401</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F136" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I136" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16" thickTop="1">
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="3:9" s="4" customFormat="1">
-      <c r="D129" s="4" t="s">
+    <row r="137" spans="3:9" ht="16" thickTop="1">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="3:9" s="4" customFormat="1">
+      <c r="D138" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E138" s="6">
         <v>42125</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I129" s="4" t="s">
+      <c r="I138" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="3:9" s="23" customFormat="1">
-      <c r="C130" s="23" t="s">
+    <row r="139" spans="3:9" s="23" customFormat="1">
+      <c r="C139" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="H139" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="3:9" s="8" customFormat="1">
-      <c r="C131" s="8" t="s">
+    <row r="140" spans="3:9" s="8" customFormat="1">
+      <c r="C140" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H140" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I140" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="3:9" s="23" customFormat="1">
-      <c r="C132" s="23" t="s">
+    <row r="141" spans="3:9" s="23" customFormat="1">
+      <c r="C141" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="H132" s="23" t="s">
+      <c r="H141" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="3:9" s="23" customFormat="1">
-      <c r="C133" s="23" t="s">
+    <row r="142" spans="3:9" s="23" customFormat="1">
+      <c r="C142" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="H133" s="23" t="s">
+      <c r="H142" s="23" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="3:9" s="23" customFormat="1">
-      <c r="C134" s="23" t="s">
+    <row r="143" spans="3:9" s="23" customFormat="1">
+      <c r="C143" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="H134" s="23" t="s">
+      <c r="H143" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
-      <c r="C135" s="23" t="s">
+    <row r="144" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C144" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="H144" s="23" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="E136" s="9" t="s">
+    <row r="145" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E145" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H136" s="9" t="s">
+      <c r="H145" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="I136" s="9" t="s">
+      <c r="I145" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="138" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="D138" s="9" t="s">
+    <row r="146" spans="4:9" ht="16" thickTop="1"/>
+    <row r="147" spans="4:9" s="4" customFormat="1">
+      <c r="D147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="6">
+        <v>42125</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="4:9" s="23" customFormat="1">
+      <c r="H148" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="4:9" s="8" customFormat="1">
+      <c r="H149" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="4:9" s="23" customFormat="1">
+      <c r="H150" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" s="23" customFormat="1">
+      <c r="H151" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" s="23" customFormat="1">
+      <c r="H152" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="4:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="H153" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="E154" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="4:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="156" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="D156" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E156" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F156" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G156" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I138" s="9" t="s">
+      <c r="I156" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H139" s="9" t="s">
+    <row r="157" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H157" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H140" s="9" t="s">
+    <row r="158" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H158" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H141" s="9" t="s">
+    <row r="159" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H159" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H142" s="9" t="s">
+    <row r="160" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H160" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I142" s="9" t="s">
+      <c r="I160" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="H143" s="9" t="s">
+    <row r="161" spans="8:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="H161" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I143" s="9" t="s">
+      <c r="I161" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="3:9" ht="16" thickTop="1"/>
+    <row r="162" spans="8:9" ht="16" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/project management/gantt chart - moved to drive.xlsx
+++ b/project management/gantt chart - moved to drive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="323">
   <si>
     <t>TAU data</t>
   </si>
@@ -976,6 +976,18 @@
   </si>
   <si>
     <t>AMP-AD_SampleSwap_UFL-Mayo-ISB_IlluminaHiSeq2000_dIPFC_Rush-Broad-SS_TranscriptCounts_Normalized_JulyRerun.txt.gz</t>
+  </si>
+  <si>
+    <t>syn4719606</t>
+  </si>
+  <si>
+    <t>syn4719692</t>
+  </si>
+  <si>
+    <t>syn4719609</t>
+  </si>
+  <si>
+    <t>syn4719707</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1259,8 +1271,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1307,8 +1320,9 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="81" applyFill="1"/>
     <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="81" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="125"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="126">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1432,6 +1446,7 @@
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3973,10 +3988,10 @@
   <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5407,7 +5422,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="145" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E145" s="9" t="s">
         <v>179</v>
       </c>
@@ -5418,8 +5433,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="4:9" ht="16" thickTop="1"/>
-    <row r="147" spans="4:9" s="4" customFormat="1">
+    <row r="146" spans="3:9" ht="16" thickTop="1"/>
+    <row r="147" spans="3:9" s="4" customFormat="1">
       <c r="D147" s="4" t="s">
         <v>184</v>
       </c>
@@ -5436,12 +5451,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="4:9" s="23" customFormat="1">
+    <row r="148" spans="3:9" s="23" customFormat="1">
       <c r="H148" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="149" spans="4:9" s="8" customFormat="1">
+    <row r="149" spans="3:9" s="8" customFormat="1">
       <c r="H149" s="8" t="s">
         <v>201</v>
       </c>
@@ -5449,27 +5464,39 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="4:9" s="23" customFormat="1">
+    <row r="150" spans="3:9" s="23" customFormat="1">
+      <c r="C150" s="30" t="s">
+        <v>319</v>
+      </c>
       <c r="H150" s="23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="4:9" s="23" customFormat="1">
+    <row r="151" spans="3:9" s="23" customFormat="1">
+      <c r="C151" s="30" t="s">
+        <v>320</v>
+      </c>
       <c r="H151" s="23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="4:9" s="23" customFormat="1">
+    <row r="152" spans="3:9" s="23" customFormat="1">
+      <c r="C152" s="30" t="s">
+        <v>321</v>
+      </c>
       <c r="H152" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="153" spans="4:9" s="23" customFormat="1" ht="16" thickBot="1">
+    <row r="153" spans="3:9" s="23" customFormat="1" ht="16" thickBot="1">
+      <c r="C153" s="30" t="s">
+        <v>322</v>
+      </c>
       <c r="H153" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="154" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="E154" s="9" t="s">
         <v>179</v>
       </c>
@@ -5480,8 +5507,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="4:9" ht="17" thickTop="1" thickBot="1"/>
-    <row r="156" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="155" spans="3:9" ht="17" thickTop="1" thickBot="1"/>
+    <row r="156" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="D156" s="9" t="s">
         <v>188</v>
       </c>
@@ -5498,22 +5525,22 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="157" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H157" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="158" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H158" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="159" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="159" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H159" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="4:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
+    <row r="160" spans="3:9" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="H160" s="9" t="s">
         <v>69</v>
       </c>
@@ -5534,10 +5561,14 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D118" r:id="rId1" location="%21Synapse:syn3163039"/>
+    <hyperlink ref="C150" r:id="rId2" location="%21Synapse:syn4719606"/>
+    <hyperlink ref="C151" r:id="rId3" location="%21Synapse:syn4719692"/>
+    <hyperlink ref="C152" r:id="rId4" location="%21Synapse:syn4719609"/>
+    <hyperlink ref="C153" r:id="rId5" location="%21Synapse:syn4719707"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="25" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
